--- a/biology/Zoologie/Champagne_humide/Champagne_humide.xlsx
+++ b/biology/Zoologie/Champagne_humide/Champagne_humide.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-La Champagne humide est une macro-région naturelle de Champagne-Ardenne. Elle s’étend en arc de cercle de l'Argonne au nord au Pays d'Othe au sud, entre la Champagne crayeuse à l'ouest et la Côte de Champagne (Barrois lorrain, Vallage et Barrois champenois) à l'est[1].
+La Champagne humide est une macro-région naturelle de Champagne-Ardenne. Elle s’étend en arc de cercle de l'Argonne au nord au Pays d'Othe au sud, entre la Champagne crayeuse à l'ouest et la Côte de Champagne (Barrois lorrain, Vallage et Barrois champenois) à l'est.
 </t>
         </is>
       </c>
@@ -512,10 +524,12 @@
           <t>Présentation</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette vaste dépression recouverte d’alluvions et parsemée de très nombreux plans d'eau comprend le Chaourçais, le Briennois, le Pays du Der et le Perthois.
-Les lacs et étangs de la Champagne humide sont classés par la convention de Ramsar depuis le 8 avril 1991[2]. La superficie désignée de 255 800 ha en fait le plus grand site français métropolitain de zones humides classées Ramsar : Parc naturel régional de la forêt d'Orient, Lacs Amance et du Temple, Lac du Der-Chantecoq...
+Les lacs et étangs de la Champagne humide sont classés par la convention de Ramsar depuis le 8 avril 1991. La superficie désignée de 255 800 ha en fait le plus grand site français métropolitain de zones humides classées Ramsar : Parc naturel régional de la forêt d'Orient, Lacs Amance et du Temple, Lac du Der-Chantecoq...
 Outre son patrimoine naturel, cette région est connue pour son architecture traditionnelle à pans de bois.
 </t>
         </is>
